--- a/mis_payment20220624.xlsx
+++ b/mis_payment20220624.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>MIS of Payment As On 08.04.2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+  <si>
+    <t>MIS of Payment As On 24-06-2022</t>
   </si>
   <si>
     <t>Sr No</t>
@@ -35,16 +35,16 @@
     <t>Expected Realisation</t>
   </si>
   <si>
-    <t>10.04.2022</t>
-  </si>
-  <si>
-    <t>20.04.2022</t>
-  </si>
-  <si>
-    <t>30.04.2022</t>
-  </si>
-  <si>
-    <t>May-22</t>
+    <t>10-06-2022</t>
+  </si>
+  <si>
+    <t>20-06-2022</t>
+  </si>
+  <si>
+    <t>30-06-2022</t>
+  </si>
+  <si>
+    <t>Jul-2022</t>
   </si>
   <si>
     <t>A</t>
@@ -74,6 +74,9 @@
     <t>₹611,369.00</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
@@ -99,6 +102,12 @@
   </si>
   <si>
     <t>₹0.00</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>₹759,119.00</t>
   </si>
 </sst>
 </file>
@@ -477,10 +486,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,7 +574,6 @@
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4">
@@ -580,7 +588,6 @@
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4">
@@ -595,7 +602,6 @@
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5"/>
@@ -605,7 +611,9 @@
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -613,10 +621,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -630,12 +638,14 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>-600</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4">
@@ -645,22 +655,26 @@
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>-600</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -668,10 +682,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -680,16 +694,32 @@
     <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
